--- a/biology/Médecine/Michel_Mboussou/Michel_Mboussou.xlsx
+++ b/biology/Médecine/Michel_Mboussou/Michel_Mboussou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Mboussou, né à Port-Gentil (Gabon), est un homme politique gabonais et ancien directeur général de la Caisse nationale d’assurance maladie et de garantie sociale gabonaise (C.N.A.M.G.S)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Mboussou, né à Port-Gentil (Gabon), est un homme politique gabonais et ancien directeur général de la Caisse nationale d’assurance maladie et de garantie sociale gabonaise (C.N.A.M.G.S).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il obtient son doctorat d’état en médecine en 1981 à Dakar à l’université Cheick Anta Diop. Il se spécialise par la suite en psychiatrie et obtient de la même université son certificat d'études supérieures (CES) de psychiatrie de l’adulte en 1983 et son CES de psychiatrie de l’enfant et de l’adolescent (Université de médecine de Paris XI Kremlin Bicêtre). Il deviendra professeur agrégé en psychiatrie en 1992[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il obtient son doctorat d’état en médecine en 1981 à Dakar à l’université Cheick Anta Diop. Il se spécialise par la suite en psychiatrie et obtient de la même université son certificat d'études supérieures (CES) de psychiatrie de l’adulte en 1983 et son CES de psychiatrie de l’enfant et de l’adolescent (Université de médecine de Paris XI Kremlin Bicêtre). Il deviendra professeur agrégé en psychiatrie en 1992.
 Il assure les fonctions de chef du département de psychiatrie et de psychologie médicale à la Faculté de médecine de Libreville.
 Il travaille ensuite a l’administration de la lutte contre l’enrichissement illicite. Il est ensuite nommé par le président ministre des Affaires étrangères. 
 Quelque temps après il est nommé à la tête de la CNAMGS (Caisse nationale d’assurance maladie et de Garantie sociale).Il reste pendant 9 ans a la tête de cette entreprise avant d’être nommé Directeur général de la SGEPP
@@ -546,7 +560,9 @@
           <t>Parcours professionnel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Médecin psychiatre à la Fondation Jeanne Ebori de Libreville (1983 - 1992)
 Médecin chef du service de psychiatrie à l’hôpital psychiatrique de Melen (depuis 1992)
@@ -555,7 +571,7 @@
 Membre fondateur de l’ONG Gabon médicale assistance
 Directeur général adjoint de l’Action sanitaire à la Caisse nationale de sécurité sociale (CNSS) (1991 - 1999)
 Président du conseil d'administration de la Caisse nationale de garantie sociale (CNGS) (1999 - 2003)
-Ministre délégué aux Affaires étrangères (2007)[3]
+Ministre délégué aux Affaires étrangères (2007)
 Directeur général de la Caisse nationale d’assurance maladie et de garantie sociale (CNAMGS) (2009)
 Directeur général de la SGEPP (2018)
 </t>
